--- a/products_table_tunisia.xlsx
+++ b/products_table_tunisia.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\skincare-api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DD5FE5-EEE0-40F5-A440-86800108D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>product_name</t>
   </si>
@@ -35,36 +40,24 @@
     <t>repair/dry skin</t>
   </si>
   <si>
-    <t>https://tn.cosmostore.org/catalog/product/cicaplast_baume_b5_spf50/</t>
-  </si>
-  <si>
     <t>Normaderm Phytosolution Daily Care (La Roche-Posay)</t>
   </si>
   <si>
     <t>acne/oily skin</t>
   </si>
   <si>
-    <t>https://tn.cosmostore.org/catalog/product/normaderm_phytosolution_daily_care/</t>
-  </si>
-  <si>
     <t>Hydrating Foaming Oil Cleanser (Eucerin)</t>
   </si>
   <si>
     <t>dry/sensitive skin</t>
   </si>
   <si>
-    <t>https://tn.cosmostore.org/catalog/product/hydrating_foaming_oil_cleanser/</t>
-  </si>
-  <si>
     <t>Anthelios XL SPF50+ Gel-Cream (La Roche-Posay)</t>
   </si>
   <si>
     <t>sun protection/oily</t>
   </si>
   <si>
-    <t>https://tn.cosmostore.org/catalog/product/anthelios_xl_spf50_gel_cream/</t>
-  </si>
-  <si>
     <t>Cicalfate+ Repairing Cream (Avène)</t>
   </si>
   <si>
@@ -381,21 +374,34 @@
   </si>
   <si>
     <t>https://example.com/sample-product-50</t>
+  </si>
+  <si>
+    <t>https://www.parashop.tn/la-roche-posay-cicaplast-baume-b5-spf50?srsltid=AfmBOorzTldKvlqwVyP88Gmtot_ebtWjZWtvJMIZ7rrQJjdLwdzPMVuH</t>
+  </si>
+  <si>
+    <t>https://www.parashop.tn/vichy-normaderm-phytosolution-gel-purifiant-intense-200ml?srsltid=AfmBOoo7kTAo5snVApVzfWrnC2Z1E9Yea0HBzwTBZXNdvbK8StmRI6Wu</t>
+  </si>
+  <si>
+    <t>https://tunisiepara.com/shop/eucerin-dermo-purifyer-gel-nettoyant-200ml/</t>
+  </si>
+  <si>
+    <t>https://tunisiepara.com/shop/la-roche-posay-anthelios-xl-gel-creme-toucher-sec-spf-50-teinte/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -404,28 +410,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -715,19 +733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="113.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -749,710 +769,706 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>15.95</v>
-      </c>
-      <c r="D2" t="s">
+        <v>68.543999999999997</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>33.0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>39.841000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>15.95</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5">
+        <v>69.432000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>36.85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6">
         <v>19.25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>30.25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>94.6</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>26.95</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>23.1</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>53.35</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>37.4</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="C13">
-        <v>11.0</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15">
+        <v>242</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
-        <v>132.0</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="C15">
-        <v>242.0</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
-        <v>144.0</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="C17">
-        <v>75.0</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="C18">
-        <v>138.0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>118.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20">
-        <v>33.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>34.0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <v>15.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>16.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <v>17.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>18.0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26">
-        <v>19.0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27">
-        <v>20.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
-        <v>21.0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
-        <v>22.0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30">
-        <v>23.0</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31">
-        <v>24.0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>25.0</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33">
-        <v>26.0</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34">
-        <v>27.0</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35">
-        <v>28.0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>29.0</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>30.0</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38">
-        <v>31.0</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>32.0</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40">
-        <v>33.0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>34.0</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
-        <v>15.0</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43">
-        <v>16.0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44">
-        <v>17.0</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45">
-        <v>18.0</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46">
-        <v>19.0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>112</v>
       </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47">
-        <v>20.0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>114</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48">
-        <v>21.0</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>116</v>
       </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49">
-        <v>22.0</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50">
-        <v>23.0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51">
-        <v>24.0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{65486236-8FB9-4138-A7FA-2280637AADBE}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{96F6A57A-D29C-4645-8F7C-0563A714077E}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{4811891B-E116-4254-82B0-E3AC651DFC9B}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{FCC64A10-1689-48FA-9D70-5F28F7F869DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>